--- a/Hoja de Desempeño (1).xlsx
+++ b/Hoja de Desempeño (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geovani\Desktop\PROYECTOPARCIAL2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geovani\Desktop\PROYECTOFASE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -897,13 +897,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.9333333333333336</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8666666666666663</c:v>
+                  <c:v>7.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>7.1333333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,7 +915,7 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.9333333333333336</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -992,13 +992,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.9333333333333336</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8666666666666663</c:v>
+                  <c:v>7.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>7.1333333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,7 +1010,7 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.8666666666666663</c:v>
+                  <c:v>7.3333333333333339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1087,13 +1087,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.9333333333333336</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8666666666666663</c:v>
+                  <c:v>7.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>7.1333333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,7 +1105,7 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>7.1333333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1182,13 +1182,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.9333333333333336</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8666666666666663</c:v>
+                  <c:v>7.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>7.1333333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1277,13 +1277,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.9333333333333336</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8666666666666663</c:v>
+                  <c:v>7.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>7.1333333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,13 +1328,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.9333333333333336</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8666666666666663</c:v>
+                  <c:v>7.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>7.1333333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6712,13 +6712,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>7.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>7.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>6.666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11524,13 +11524,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>6.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>6.666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11670,13 +11670,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6.333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11816,13 +11816,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.333333333333333</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.333333333333333</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.333333333333333</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11962,13 +11962,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>7.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>7.666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12091,13 +12091,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.9333333333333336</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8666666666666663</c:v>
+                  <c:v>7.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>7.1333333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24981,7 +24981,7 @@
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+      <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25170,18 +25170,18 @@
         <v>25</v>
       </c>
       <c r="B4" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="35">
         <v>7</v>
       </c>
       <c r="D4" s="35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="15">
         <f t="shared" ref="F4:F6" si="0">AVERAGE(B4:E4)</f>
-        <v>4.666666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="G4" s="8">
         <v>7</v>
@@ -25190,12 +25190,12 @@
         <v>7</v>
       </c>
       <c r="I4" s="8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="17">
         <f>AVERAGE(G4:J4)</f>
-        <v>4.666666666666667</v>
+        <v>7</v>
       </c>
       <c r="L4" s="9">
         <v>8</v>
@@ -25204,12 +25204,12 @@
         <v>7</v>
       </c>
       <c r="N4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="13">
         <f>AVERAGE(L4:O4)</f>
-        <v>5</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="Q4" s="29">
         <v>8</v>
@@ -25218,12 +25218,12 @@
         <v>8</v>
       </c>
       <c r="S4" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T4" s="29"/>
       <c r="U4" s="30">
         <f>AVERAGE(Q4:T4)</f>
-        <v>5.333333333333333</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="V4" s="10">
         <v>8</v>
@@ -25232,36 +25232,36 @@
         <v>7</v>
       </c>
       <c r="X4" s="10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y4" s="10"/>
       <c r="Z4" s="19">
         <f>AVERAGE(V4:Y4)</f>
-        <v>5</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="AA4" s="11">
         <f t="shared" ref="AA4:AA6" si="1">+F4</f>
-        <v>4.666666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="AB4" s="34">
         <f>+K4</f>
-        <v>4.666666666666667</v>
+        <v>7</v>
       </c>
       <c r="AC4" s="34">
         <f>+P4</f>
-        <v>5</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="AD4" s="34">
         <f>+U4</f>
-        <v>5.333333333333333</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="AE4" s="34">
         <f>+Z4</f>
-        <v>5</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="AF4" s="21">
         <f t="shared" ref="AF4:AF7" si="2">AVERAGE(AA4:AE4)</f>
-        <v>4.9333333333333336</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25275,12 +25275,12 @@
         <v>7</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="16">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="G5" s="8">
         <v>7</v>
@@ -25289,12 +25289,12 @@
         <v>6</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="17">
         <f t="shared" ref="K5:K6" si="3">AVERAGE(G5:J5)</f>
-        <v>4.333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L5" s="9">
         <v>8</v>
@@ -25303,12 +25303,12 @@
         <v>6</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="13">
         <f t="shared" ref="P5:P6" si="4">AVERAGE(L5:O5)</f>
-        <v>4.666666666666667</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="29">
         <v>8</v>
@@ -25317,12 +25317,12 @@
         <v>8</v>
       </c>
       <c r="S5" s="31">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T5" s="29"/>
       <c r="U5" s="30">
         <f t="shared" ref="U5:U6" si="5">AVERAGE(Q5:T5)</f>
-        <v>5.333333333333333</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="V5" s="10">
         <v>8</v>
@@ -25331,36 +25331,36 @@
         <v>7</v>
       </c>
       <c r="X5" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="19">
         <f t="shared" ref="Z5:Z6" si="6">AVERAGE(V5:Y5)</f>
-        <v>5</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="AA5" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="AB5" s="34">
         <f t="shared" ref="AB5:AB6" si="7">+K5</f>
-        <v>4.333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AC5" s="34">
         <f t="shared" ref="AC5:AC6" si="8">+P5</f>
-        <v>4.666666666666667</v>
+        <v>7</v>
       </c>
       <c r="AD5" s="34">
         <f t="shared" ref="AD5:AD6" si="9">+U5</f>
-        <v>5.333333333333333</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="AE5" s="34">
         <f t="shared" ref="AE5:AE6" si="10">+Z5</f>
-        <v>5</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="AF5" s="22">
         <f t="shared" si="2"/>
-        <v>4.8666666666666663</v>
+        <v>7.3333333333333339</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25374,12 +25374,12 @@
         <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="16">
         <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="G6" s="8">
         <v>7</v>
@@ -25388,12 +25388,12 @@
         <v>6</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="17">
         <f t="shared" si="3"/>
-        <v>4.333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L6" s="9">
         <v>6</v>
@@ -25402,12 +25402,12 @@
         <v>6</v>
       </c>
       <c r="N6" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="13">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="Q6" s="29">
         <v>8</v>
@@ -25416,12 +25416,12 @@
         <v>8</v>
       </c>
       <c r="S6" s="31">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T6" s="29"/>
       <c r="U6" s="30">
         <f t="shared" si="5"/>
-        <v>5.333333333333333</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="V6" s="10">
         <v>8</v>
@@ -25430,36 +25430,36 @@
         <v>7</v>
       </c>
       <c r="X6" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="19">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="AA6" s="5">
         <f t="shared" si="1"/>
-        <v>4.333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AB6" s="34">
         <f t="shared" si="7"/>
-        <v>4.333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AC6" s="34">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="AD6" s="34">
         <f t="shared" si="9"/>
-        <v>5.333333333333333</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="AE6" s="34">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="AF6" s="22">
         <f t="shared" si="2"/>
-        <v>4.5999999999999996</v>
+        <v>7.1333333333333329</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -25493,27 +25493,27 @@
       <c r="Z7" s="26"/>
       <c r="AA7" s="36">
         <f>AVERAGE(AA4:AA6)</f>
-        <v>4.666666666666667</v>
+        <v>7.1111111111111107</v>
       </c>
       <c r="AB7" s="37">
         <f>AVERAGE(AB4:AB6)</f>
-        <v>4.4444444444444438</v>
+        <v>6.7777777777777786</v>
       </c>
       <c r="AC7" s="37">
         <f>AVERAGE(AC4:AC6)</f>
-        <v>4.5555555555555562</v>
+        <v>7</v>
       </c>
       <c r="AD7" s="37">
         <f>AVERAGE(AD4:AD6)</f>
-        <v>5.333333333333333</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="AE7" s="37">
         <f>AVERAGE(AE4:AE6)</f>
-        <v>5</v>
+        <v>7.5555555555555562</v>
       </c>
       <c r="AF7" s="33">
         <f t="shared" si="2"/>
-        <v>4.8</v>
+        <v>7.3555555555555561</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -26452,17 +26452,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="L1:P2"/>
+    <mergeCell ref="Q1:U2"/>
+    <mergeCell ref="V1:Z2"/>
     <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="L1:P2"/>
-    <mergeCell ref="Q1:U2"/>
-    <mergeCell ref="V1:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -27322,17 +27322,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="L1:P2"/>
     <mergeCell ref="Q1:U2"/>
     <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -28187,17 +28187,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="L1:P2"/>
     <mergeCell ref="Q1:U2"/>
     <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Hoja de Desempeño (1).xlsx
+++ b/Hoja de Desempeño (1).xlsx
@@ -24981,7 +24981,7 @@
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11"/>
+      <selection activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26452,17 +26452,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="L1:P2"/>
-    <mergeCell ref="Q1:U2"/>
-    <mergeCell ref="V1:Z2"/>
     <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="L1:P2"/>
+    <mergeCell ref="Q1:U2"/>
+    <mergeCell ref="V1:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -27322,17 +27322,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="L1:P2"/>
     <mergeCell ref="Q1:U2"/>
     <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -28187,17 +28187,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="L1:P2"/>
     <mergeCell ref="Q1:U2"/>
     <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Hoja de Desempeño (1).xlsx
+++ b/Hoja de Desempeño (1).xlsx
@@ -17,7 +17,7 @@
     <sheet name="Marzo" sheetId="7" r:id="rId3"/>
     <sheet name="Abril" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -900,10 +900,10 @@
                   <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3333333333333339</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1333333333333329</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,10 +995,10 @@
                   <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3333333333333339</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1333333333333329</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,7 +1010,7 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.3333333333333339</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1090,10 +1090,10 @@
                   <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3333333333333339</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1333333333333329</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,7 +1105,7 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.1333333333333329</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,10 +1185,10 @@
                   <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3333333333333339</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1333333333333329</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,10 +1280,10 @@
                   <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3333333333333339</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1333333333333329</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1331,10 +1331,10 @@
                   <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3333333333333339</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1333333333333329</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6712,13 +6712,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.333333333333333</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.333333333333333</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11527,10 +11527,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11670,13 +11670,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.666666666666667</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.333333333333333</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11816,13 +11816,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11962,13 +11962,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.666666666666667</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.333333333333333</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.666666666666667</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12094,10 +12094,10 @@
                   <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3333333333333339</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1333333333333329</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24981,7 +24981,7 @@
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3"/>
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25178,10 +25178,12 @@
       <c r="D4" s="35">
         <v>7</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="35">
+        <v>7</v>
+      </c>
       <c r="F4" s="15">
         <f t="shared" ref="F4:F6" si="0">AVERAGE(B4:E4)</f>
-        <v>7.333333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="G4" s="8">
         <v>7</v>
@@ -25192,7 +25194,9 @@
       <c r="I4" s="8">
         <v>7</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="8">
+        <v>7</v>
+      </c>
       <c r="K4" s="17">
         <f>AVERAGE(G4:J4)</f>
         <v>7</v>
@@ -25206,10 +25210,12 @@
       <c r="N4" s="9">
         <v>8</v>
       </c>
-      <c r="O4" s="9"/>
+      <c r="O4" s="9">
+        <v>7</v>
+      </c>
       <c r="P4" s="13">
         <f>AVERAGE(L4:O4)</f>
-        <v>7.666666666666667</v>
+        <v>7.5</v>
       </c>
       <c r="Q4" s="29">
         <v>8</v>
@@ -25220,10 +25226,12 @@
       <c r="S4" s="29">
         <v>9</v>
       </c>
-      <c r="T4" s="29"/>
+      <c r="T4" s="29">
+        <v>9</v>
+      </c>
       <c r="U4" s="30">
         <f>AVERAGE(Q4:T4)</f>
-        <v>8.3333333333333339</v>
+        <v>8.5</v>
       </c>
       <c r="V4" s="10">
         <v>8</v>
@@ -25234,14 +25242,16 @@
       <c r="X4" s="10">
         <v>8</v>
       </c>
-      <c r="Y4" s="10"/>
+      <c r="Y4" s="10">
+        <v>8</v>
+      </c>
       <c r="Z4" s="19">
         <f>AVERAGE(V4:Y4)</f>
-        <v>7.666666666666667</v>
+        <v>7.75</v>
       </c>
       <c r="AA4" s="11">
         <f t="shared" ref="AA4:AA6" si="1">+F4</f>
-        <v>7.333333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="AB4" s="34">
         <f>+K4</f>
@@ -25249,15 +25259,15 @@
       </c>
       <c r="AC4" s="34">
         <f>+P4</f>
-        <v>7.666666666666667</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" s="34">
         <f>+U4</f>
-        <v>8.3333333333333339</v>
+        <v>8.5</v>
       </c>
       <c r="AE4" s="34">
         <f>+Z4</f>
-        <v>7.666666666666667</v>
+        <v>7.75</v>
       </c>
       <c r="AF4" s="21">
         <f t="shared" ref="AF4:AF7" si="2">AVERAGE(AA4:AE4)</f>
@@ -25277,10 +25287,12 @@
       <c r="D5" s="1">
         <v>7</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
       <c r="F5" s="16">
         <f t="shared" si="0"/>
-        <v>7.333333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="G5" s="8">
         <v>7</v>
@@ -25291,10 +25303,12 @@
       <c r="I5" s="2">
         <v>7</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2">
+        <v>7</v>
+      </c>
       <c r="K5" s="17">
         <f t="shared" ref="K5:K6" si="3">AVERAGE(G5:J5)</f>
-        <v>6.666666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="L5" s="9">
         <v>8</v>
@@ -25305,7 +25319,9 @@
       <c r="N5" s="3">
         <v>7</v>
       </c>
-      <c r="O5" s="3"/>
+      <c r="O5" s="3">
+        <v>7</v>
+      </c>
       <c r="P5" s="13">
         <f t="shared" ref="P5:P6" si="4">AVERAGE(L5:O5)</f>
         <v>7</v>
@@ -25319,10 +25335,12 @@
       <c r="S5" s="31">
         <v>9</v>
       </c>
-      <c r="T5" s="29"/>
+      <c r="T5" s="29">
+        <v>9</v>
+      </c>
       <c r="U5" s="30">
         <f t="shared" ref="U5:U6" si="5">AVERAGE(Q5:T5)</f>
-        <v>8.3333333333333339</v>
+        <v>8.5</v>
       </c>
       <c r="V5" s="10">
         <v>8</v>
@@ -25333,18 +25351,20 @@
       <c r="X5" s="4">
         <v>7</v>
       </c>
-      <c r="Y5" s="4"/>
+      <c r="Y5" s="4">
+        <v>8</v>
+      </c>
       <c r="Z5" s="19">
         <f t="shared" ref="Z5:Z6" si="6">AVERAGE(V5:Y5)</f>
-        <v>7.333333333333333</v>
+        <v>7.5</v>
       </c>
       <c r="AA5" s="5">
         <f t="shared" si="1"/>
-        <v>7.333333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="AB5" s="34">
         <f t="shared" ref="AB5:AB6" si="7">+K5</f>
-        <v>6.666666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="AC5" s="34">
         <f t="shared" ref="AC5:AC6" si="8">+P5</f>
@@ -25352,15 +25372,15 @@
       </c>
       <c r="AD5" s="34">
         <f t="shared" ref="AD5:AD6" si="9">+U5</f>
-        <v>8.3333333333333339</v>
+        <v>8.5</v>
       </c>
       <c r="AE5" s="34">
         <f t="shared" ref="AE5:AE6" si="10">+Z5</f>
-        <v>7.333333333333333</v>
+        <v>7.5</v>
       </c>
       <c r="AF5" s="22">
         <f t="shared" si="2"/>
-        <v>7.3333333333333339</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25376,10 +25396,12 @@
       <c r="D6" s="1">
         <v>7</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
       <c r="F6" s="16">
         <f t="shared" si="0"/>
-        <v>6.666666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="G6" s="8">
         <v>7</v>
@@ -25390,10 +25412,12 @@
       <c r="I6" s="2">
         <v>7</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2">
+        <v>7</v>
+      </c>
       <c r="K6" s="17">
         <f t="shared" si="3"/>
-        <v>6.666666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="L6" s="9">
         <v>6</v>
@@ -25404,10 +25428,12 @@
       <c r="N6" s="3">
         <v>7</v>
       </c>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3">
+        <v>7</v>
+      </c>
       <c r="P6" s="13">
         <f t="shared" si="4"/>
-        <v>6.333333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="Q6" s="29">
         <v>8</v>
@@ -25418,10 +25444,12 @@
       <c r="S6" s="31">
         <v>9</v>
       </c>
-      <c r="T6" s="29"/>
+      <c r="T6" s="29">
+        <v>9</v>
+      </c>
       <c r="U6" s="30">
         <f t="shared" si="5"/>
-        <v>8.3333333333333339</v>
+        <v>8.5</v>
       </c>
       <c r="V6" s="10">
         <v>8</v>
@@ -25432,34 +25460,36 @@
       <c r="X6" s="4">
         <v>8</v>
       </c>
-      <c r="Y6" s="4"/>
+      <c r="Y6" s="4">
+        <v>8</v>
+      </c>
       <c r="Z6" s="19">
         <f t="shared" si="6"/>
-        <v>7.666666666666667</v>
+        <v>7.75</v>
       </c>
       <c r="AA6" s="5">
         <f t="shared" si="1"/>
-        <v>6.666666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="AB6" s="34">
         <f t="shared" si="7"/>
-        <v>6.666666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="AC6" s="34">
         <f t="shared" si="8"/>
-        <v>6.333333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" s="34">
         <f t="shared" si="9"/>
-        <v>8.3333333333333339</v>
+        <v>8.5</v>
       </c>
       <c r="AE6" s="34">
         <f t="shared" si="10"/>
-        <v>7.666666666666667</v>
+        <v>7.75</v>
       </c>
       <c r="AF6" s="22">
         <f t="shared" si="2"/>
-        <v>7.1333333333333329</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -25493,11 +25523,11 @@
       <c r="Z7" s="26"/>
       <c r="AA7" s="36">
         <f>AVERAGE(AA4:AA6)</f>
-        <v>7.1111111111111107</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AB7" s="37">
         <f>AVERAGE(AB4:AB6)</f>
-        <v>6.7777777777777786</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="AC7" s="37">
         <f>AVERAGE(AC4:AC6)</f>
@@ -25505,15 +25535,15 @@
       </c>
       <c r="AD7" s="37">
         <f>AVERAGE(AD4:AD6)</f>
-        <v>8.3333333333333339</v>
+        <v>8.5</v>
       </c>
       <c r="AE7" s="37">
         <f>AVERAGE(AE4:AE6)</f>
-        <v>7.5555555555555562</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="AF7" s="33">
         <f t="shared" si="2"/>
-        <v>7.3555555555555561</v>
+        <v>7.4166666666666661</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -26452,17 +26482,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="L1:P2"/>
+    <mergeCell ref="Q1:U2"/>
+    <mergeCell ref="V1:Z2"/>
     <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="L1:P2"/>
-    <mergeCell ref="Q1:U2"/>
-    <mergeCell ref="V1:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -27322,17 +27352,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="L1:P2"/>
     <mergeCell ref="Q1:U2"/>
     <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -28187,17 +28217,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="L1:P2"/>
     <mergeCell ref="Q1:U2"/>
     <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Hoja de Desempeño (1).xlsx
+++ b/Hoja de Desempeño (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geovani\Desktop\PROYECTOFASE2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geovani\Desktop\h\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Marzo" sheetId="7" r:id="rId3"/>
     <sheet name="Abril" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24981,7 +24981,7 @@
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+      <selection activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26482,17 +26482,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="L1:P2"/>
-    <mergeCell ref="Q1:U2"/>
-    <mergeCell ref="V1:Z2"/>
     <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="L1:P2"/>
+    <mergeCell ref="Q1:U2"/>
+    <mergeCell ref="V1:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -27352,17 +27352,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="L1:P2"/>
     <mergeCell ref="Q1:U2"/>
     <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -28217,17 +28217,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="L1:P2"/>
     <mergeCell ref="Q1:U2"/>
     <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Hoja de Desempeño (1).xlsx
+++ b/Hoja de Desempeño (1).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geovani\Desktop\h\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEBAS\Desktop\ProyectoSegundaFase\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B137BD-814F-49BC-8B7B-BBDE4C762193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="4" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Marzo" sheetId="7" r:id="rId3"/>
     <sheet name="Abril" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -124,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -761,7 +762,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -807,7 +808,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -862,9 +862,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-EEE6-4E66-A2B9-B018BFF7E671}"/>
                 </c:ext>
@@ -900,7 +898,7 @@
                   <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.25</c:v>
@@ -957,9 +955,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-EEE6-4E66-A2B9-B018BFF7E671}"/>
                 </c:ext>
@@ -995,7 +991,7 @@
                   <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.25</c:v>
@@ -1010,7 +1006,7 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.4</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,9 +1048,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-EEE6-4E66-A2B9-B018BFF7E671}"/>
                 </c:ext>
@@ -1090,7 +1084,7 @@
                   <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.25</c:v>
@@ -1147,9 +1141,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-EEE6-4E66-A2B9-B018BFF7E671}"/>
                 </c:ext>
@@ -1185,7 +1177,7 @@
                   <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.25</c:v>
@@ -1242,9 +1234,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-EEE6-4E66-A2B9-B018BFF7E671}"/>
                 </c:ext>
@@ -1280,7 +1270,7 @@
                   <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.25</c:v>
@@ -1331,7 +1321,7 @@
                   <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.25</c:v>
@@ -1405,7 +1395,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6641,7 +6630,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6683,9 +6671,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -6742,7 +6728,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -11453,7 +11438,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11495,9 +11479,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -11554,7 +11536,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11599,7 +11580,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11641,9 +11621,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -11673,7 +11651,7 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.5</c:v>
@@ -11700,7 +11678,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11745,7 +11722,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11787,9 +11763,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -11846,7 +11820,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11891,7 +11864,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11933,9 +11905,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -11992,7 +11962,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12037,7 +12006,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12079,9 +12047,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -12094,7 +12060,7 @@
                   <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.25</c:v>
@@ -12121,7 +12087,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -24767,6 +24732,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -24802,6 +24784,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -24977,11 +24976,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="AH10" sqref="AH10"/>
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25317,14 +25316,14 @@
         <v>6</v>
       </c>
       <c r="N5" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O5" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P5" s="13">
         <f t="shared" ref="P5:P6" si="4">AVERAGE(L5:O5)</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q5" s="29">
         <v>8</v>
@@ -25368,7 +25367,7 @@
       </c>
       <c r="AC5" s="34">
         <f t="shared" ref="AC5:AC6" si="8">+P5</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" s="34">
         <f t="shared" ref="AD5:AD6" si="9">+U5</f>
@@ -25380,7 +25379,7 @@
       </c>
       <c r="AF5" s="22">
         <f t="shared" si="2"/>
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25531,7 +25530,7 @@
       </c>
       <c r="AC7" s="37">
         <f>AVERAGE(AC4:AC6)</f>
-        <v>7</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="AD7" s="37">
         <f>AVERAGE(AD4:AD6)</f>
@@ -25543,7 +25542,7 @@
       </c>
       <c r="AF7" s="33">
         <f t="shared" si="2"/>
-        <v>7.4166666666666661</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -25576,7 +25575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -26482,17 +26481,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="L1:P2"/>
+    <mergeCell ref="Q1:U2"/>
+    <mergeCell ref="V1:Z2"/>
     <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="L1:P2"/>
-    <mergeCell ref="Q1:U2"/>
-    <mergeCell ref="V1:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26506,7 +26505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -27352,17 +27351,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="L1:P2"/>
     <mergeCell ref="Q1:U2"/>
     <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -27371,7 +27370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -28217,17 +28216,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="L1:P2"/>
     <mergeCell ref="Q1:U2"/>
     <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
